--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.2727973655578</v>
+        <v>15.4436705</v>
       </c>
       <c r="N2">
-        <v>15.2727973655578</v>
+        <v>30.887341</v>
       </c>
       <c r="O2">
-        <v>0.1945441839925925</v>
+        <v>0.1861093649875006</v>
       </c>
       <c r="P2">
-        <v>0.1945441839925925</v>
+        <v>0.1466263162891969</v>
       </c>
       <c r="Q2">
-        <v>2975.633859150253</v>
+        <v>3012.739480784914</v>
       </c>
       <c r="R2">
-        <v>2975.633859150253</v>
+        <v>12050.95792313966</v>
       </c>
       <c r="S2">
-        <v>0.05211597586789733</v>
+        <v>0.04914414170660305</v>
       </c>
       <c r="T2">
-        <v>0.05211597586789733</v>
+        <v>0.0290658265152464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.1193941119515</v>
+        <v>35.33817966666667</v>
       </c>
       <c r="N3">
-        <v>33.1193941119515</v>
+        <v>106.014539</v>
       </c>
       <c r="O3">
-        <v>0.4218733050416109</v>
+        <v>0.4258551215255169</v>
       </c>
       <c r="P3">
-        <v>0.4218733050416109</v>
+        <v>0.5032651184401855</v>
       </c>
       <c r="Q3">
-        <v>6452.726907534996</v>
+        <v>6893.745179349517</v>
       </c>
       <c r="R3">
-        <v>6452.726907534996</v>
+        <v>41362.47107609711</v>
       </c>
       <c r="S3">
-        <v>0.1130146300631421</v>
+        <v>0.1124515385893571</v>
       </c>
       <c r="T3">
-        <v>0.1130146300631421</v>
+        <v>0.09976255964111069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.75129363529213</v>
+        <v>0.066009</v>
       </c>
       <c r="N4">
-        <v>8.75129363529213</v>
+        <v>0.198027</v>
       </c>
       <c r="O4">
-        <v>0.111473572156262</v>
+        <v>0.0007954645933076549</v>
       </c>
       <c r="P4">
-        <v>0.111473572156262</v>
+        <v>0.0009400605100905511</v>
       </c>
       <c r="Q4">
-        <v>1705.03444976403</v>
+        <v>12.8769854541465</v>
       </c>
       <c r="R4">
-        <v>1705.03444976403</v>
+        <v>77.26191272487901</v>
       </c>
       <c r="S4">
-        <v>0.02986238846711177</v>
+        <v>0.0002100508198430652</v>
       </c>
       <c r="T4">
-        <v>0.02986238846711177</v>
+        <v>0.0001863487837083386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>21.3620607848818</v>
+        <v>0.1247346666666667</v>
       </c>
       <c r="N5">
-        <v>21.3620607848818</v>
+        <v>0.374204</v>
       </c>
       <c r="O5">
-        <v>0.2721089388095347</v>
+        <v>0.001503158825180898</v>
       </c>
       <c r="P5">
-        <v>0.2721089388095347</v>
+        <v>0.001776396163744967</v>
       </c>
       <c r="Q5">
-        <v>4162.018905329628</v>
+        <v>24.33314378788467</v>
       </c>
       <c r="R5">
-        <v>4162.018905329628</v>
+        <v>145.998862727308</v>
       </c>
       <c r="S5">
-        <v>0.07289461240834025</v>
+        <v>0.0003969249495702827</v>
       </c>
       <c r="T5">
-        <v>0.07289461240834025</v>
+        <v>0.0003521361241588023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.2727973655578</v>
+        <v>9.161148333333335</v>
       </c>
       <c r="N6">
-        <v>15.2727973655578</v>
+        <v>27.483445</v>
       </c>
       <c r="O6">
-        <v>0.1945441839925925</v>
+        <v>0.1103996293415459</v>
       </c>
       <c r="P6">
-        <v>0.1945441839925925</v>
+        <v>0.1304675691988749</v>
       </c>
       <c r="Q6">
-        <v>898.0863916276995</v>
+        <v>1787.149840652211</v>
       </c>
       <c r="R6">
-        <v>898.0863916276995</v>
+        <v>10722.89904391327</v>
       </c>
       <c r="S6">
-        <v>0.01572930371437637</v>
+        <v>0.02915218709752606</v>
       </c>
       <c r="T6">
-        <v>0.01572930371437637</v>
+        <v>0.02586266795873806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H7">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I7">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J7">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.1193941119515</v>
+        <v>22.8479525</v>
       </c>
       <c r="N7">
-        <v>33.1193941119515</v>
+        <v>45.695905</v>
       </c>
       <c r="O7">
-        <v>0.4218733050416109</v>
+        <v>0.2753372607269481</v>
       </c>
       <c r="P7">
-        <v>0.4218733050416109</v>
+        <v>0.2169245393979072</v>
       </c>
       <c r="Q7">
-        <v>1947.51992310034</v>
+        <v>4457.161174984171</v>
       </c>
       <c r="R7">
-        <v>1947.51992310034</v>
+        <v>17828.64469993669</v>
       </c>
       <c r="S7">
-        <v>0.03410933808352715</v>
+        <v>0.07270570913603314</v>
       </c>
       <c r="T7">
-        <v>0.03410933808352715</v>
+        <v>0.04300108731234523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.75129363529213</v>
+        <v>15.4436705</v>
       </c>
       <c r="N8">
-        <v>8.75129363529213</v>
+        <v>30.887341</v>
       </c>
       <c r="O8">
-        <v>0.111473572156262</v>
+        <v>0.1861093649875006</v>
       </c>
       <c r="P8">
-        <v>0.111473572156262</v>
+        <v>0.1466263162891969</v>
       </c>
       <c r="Q8">
-        <v>514.6023701406529</v>
+        <v>963.8073891055913</v>
       </c>
       <c r="R8">
-        <v>514.6023701406529</v>
+        <v>5782.844334633547</v>
       </c>
       <c r="S8">
-        <v>0.009012871197624998</v>
+        <v>0.01572173339585807</v>
       </c>
       <c r="T8">
-        <v>0.009012871197624998</v>
+        <v>0.01394770036267318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.3620607848818</v>
+        <v>35.33817966666667</v>
       </c>
       <c r="N9">
-        <v>21.3620607848818</v>
+        <v>106.014539</v>
       </c>
       <c r="O9">
-        <v>0.2721089388095347</v>
+        <v>0.4258551215255169</v>
       </c>
       <c r="P9">
-        <v>0.2721089388095347</v>
+        <v>0.5032651184401855</v>
       </c>
       <c r="Q9">
-        <v>1256.153383615942</v>
+        <v>2205.382372038713</v>
       </c>
       <c r="R9">
-        <v>1256.153383615942</v>
+        <v>19848.44134834841</v>
       </c>
       <c r="S9">
-        <v>0.02200057618836242</v>
+        <v>0.03597444269574813</v>
       </c>
       <c r="T9">
-        <v>0.02200057618836242</v>
+        <v>0.04787265514564461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>15.2727973655578</v>
+        <v>0.066009</v>
       </c>
       <c r="N10">
-        <v>15.2727973655578</v>
+        <v>0.198027</v>
       </c>
       <c r="O10">
-        <v>0.1945441839925925</v>
+        <v>0.0007954645933076549</v>
       </c>
       <c r="P10">
-        <v>0.1945441839925925</v>
+        <v>0.0009400605100905511</v>
       </c>
       <c r="Q10">
-        <v>2180.292197518507</v>
+        <v>4.119484545301</v>
       </c>
       <c r="R10">
-        <v>2180.292197518507</v>
+        <v>37.075360907709</v>
       </c>
       <c r="S10">
-        <v>0.03818616836927912</v>
+        <v>6.719749037168303E-05</v>
       </c>
       <c r="T10">
-        <v>0.03818616836927912</v>
+        <v>8.942243554468097E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>33.1193941119515</v>
+        <v>0.1247346666666667</v>
       </c>
       <c r="N11">
-        <v>33.1193941119515</v>
+        <v>0.374204</v>
       </c>
       <c r="O11">
-        <v>0.4218733050416109</v>
+        <v>0.001503158825180898</v>
       </c>
       <c r="P11">
-        <v>0.4218733050416109</v>
+        <v>0.001776396163744967</v>
       </c>
       <c r="Q11">
-        <v>4728.01117178909</v>
+        <v>7.784431389607556</v>
       </c>
       <c r="R11">
-        <v>4728.01117178909</v>
+        <v>70.059882506468</v>
       </c>
       <c r="S11">
-        <v>0.08280753876166559</v>
+        <v>0.0001269805111779973</v>
       </c>
       <c r="T11">
-        <v>0.08280753876166559</v>
+        <v>0.0001689781346511425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H12">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J12">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.75129363529213</v>
+        <v>9.161148333333335</v>
       </c>
       <c r="N12">
-        <v>8.75129363529213</v>
+        <v>27.483445</v>
       </c>
       <c r="O12">
-        <v>0.111473572156262</v>
+        <v>0.1103996293415459</v>
       </c>
       <c r="P12">
-        <v>0.111473572156262</v>
+        <v>0.1304675691988749</v>
       </c>
       <c r="Q12">
-        <v>1249.304680375686</v>
+        <v>571.728233670813</v>
       </c>
       <c r="R12">
-        <v>1249.304680375686</v>
+        <v>5145.554103037316</v>
       </c>
       <c r="S12">
-        <v>0.02188062633240214</v>
+        <v>0.009326094576841443</v>
       </c>
       <c r="T12">
-        <v>0.02188062633240214</v>
+        <v>0.0124106136489382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H13">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J13">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.3620607848818</v>
+        <v>22.8479525</v>
       </c>
       <c r="N13">
-        <v>21.3620607848818</v>
+        <v>45.695905</v>
       </c>
       <c r="O13">
-        <v>0.2721089388095347</v>
+        <v>0.2753372607269481</v>
       </c>
       <c r="P13">
-        <v>0.2721089388095347</v>
+        <v>0.2169245393979072</v>
       </c>
       <c r="Q13">
-        <v>3049.574569569549</v>
+        <v>1425.893245095689</v>
       </c>
       <c r="R13">
-        <v>3049.574569569549</v>
+        <v>8555.359470574134</v>
       </c>
       <c r="S13">
-        <v>0.0534109914720576</v>
+        <v>0.02325932930557077</v>
       </c>
       <c r="T13">
-        <v>0.0534109914720576</v>
+        <v>0.02063475748013334</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.2727973655578</v>
+        <v>15.4436705</v>
       </c>
       <c r="N14">
-        <v>15.2727973655578</v>
+        <v>30.887341</v>
       </c>
       <c r="O14">
-        <v>0.1945441839925925</v>
+        <v>0.1861093649875006</v>
       </c>
       <c r="P14">
-        <v>0.1945441839925925</v>
+        <v>0.1466263162891969</v>
       </c>
       <c r="Q14">
-        <v>2149.714498541941</v>
+        <v>2206.315374366316</v>
       </c>
       <c r="R14">
-        <v>2149.714498541941</v>
+        <v>13237.89224619789</v>
       </c>
       <c r="S14">
-        <v>0.03765062310484474</v>
+        <v>0.03598966193355237</v>
       </c>
       <c r="T14">
-        <v>0.03765062310484474</v>
+        <v>0.03192860533656802</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.1193941119515</v>
+        <v>35.33817966666667</v>
       </c>
       <c r="N15">
-        <v>33.1193941119515</v>
+        <v>106.014539</v>
       </c>
       <c r="O15">
-        <v>0.4218733050416109</v>
+        <v>0.4258551215255169</v>
       </c>
       <c r="P15">
-        <v>0.4218733050416109</v>
+        <v>0.5032651184401855</v>
       </c>
       <c r="Q15">
-        <v>4661.702764808892</v>
+        <v>5048.48695785667</v>
       </c>
       <c r="R15">
-        <v>4661.702764808892</v>
+        <v>45436.38262071002</v>
       </c>
       <c r="S15">
-        <v>0.0816461971781263</v>
+        <v>0.08235148111651747</v>
       </c>
       <c r="T15">
-        <v>0.0816461971781263</v>
+        <v>0.1095884678344179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.75129363529213</v>
+        <v>0.066009</v>
       </c>
       <c r="N16">
-        <v>8.75129363529213</v>
+        <v>0.198027</v>
       </c>
       <c r="O16">
-        <v>0.111473572156262</v>
+        <v>0.0007954645933076549</v>
       </c>
       <c r="P16">
-        <v>0.111473572156262</v>
+        <v>0.0009400605100905511</v>
       </c>
       <c r="Q16">
-        <v>1231.783697412934</v>
+        <v>9.430185107002</v>
       </c>
       <c r="R16">
-        <v>1231.783697412934</v>
+        <v>84.871665963018</v>
       </c>
       <c r="S16">
-        <v>0.0215737595710697</v>
+        <v>0.0001538262289765803</v>
       </c>
       <c r="T16">
-        <v>0.0215737595710697</v>
+        <v>0.0002047028240140372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H17">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I17">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J17">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>21.3620607848818</v>
+        <v>0.1247346666666667</v>
       </c>
       <c r="N17">
-        <v>21.3620607848818</v>
+        <v>0.374204</v>
       </c>
       <c r="O17">
-        <v>0.2721089388095347</v>
+        <v>0.001503158825180898</v>
       </c>
       <c r="P17">
-        <v>0.2721089388095347</v>
+        <v>0.001776396163744967</v>
       </c>
       <c r="Q17">
-        <v>3006.805543793545</v>
+        <v>17.81985783645955</v>
       </c>
       <c r="R17">
-        <v>3006.805543793545</v>
+        <v>160.378720528136</v>
       </c>
       <c r="S17">
-        <v>0.05266192434191271</v>
+        <v>0.0002906795042491795</v>
       </c>
       <c r="T17">
-        <v>0.05266192434191271</v>
+        <v>0.0003868190476922276</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H18">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I18">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J18">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.2727973655578</v>
+        <v>9.161148333333335</v>
       </c>
       <c r="N18">
-        <v>15.2727973655578</v>
+        <v>27.483445</v>
       </c>
       <c r="O18">
-        <v>0.1945441839925925</v>
+        <v>0.1103996293415459</v>
       </c>
       <c r="P18">
-        <v>0.1945441839925925</v>
+        <v>0.1304675691988749</v>
       </c>
       <c r="Q18">
-        <v>2095.425173868588</v>
+        <v>1308.780993137848</v>
       </c>
       <c r="R18">
-        <v>2095.425173868588</v>
+        <v>11779.02893824063</v>
       </c>
       <c r="S18">
-        <v>0.03669978665503739</v>
+        <v>0.02134898121789075</v>
       </c>
       <c r="T18">
-        <v>0.03669978665503739</v>
+        <v>0.02840995826394618</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H19">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I19">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J19">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.1193941119515</v>
+        <v>22.8479525</v>
       </c>
       <c r="N19">
-        <v>33.1193941119515</v>
+        <v>45.695905</v>
       </c>
       <c r="O19">
-        <v>0.4218733050416109</v>
+        <v>0.2753372607269481</v>
       </c>
       <c r="P19">
-        <v>0.4218733050416109</v>
+        <v>0.2169245393979072</v>
       </c>
       <c r="Q19">
-        <v>4543.975180471048</v>
+        <v>3264.106733793712</v>
       </c>
       <c r="R19">
-        <v>4543.975180471048</v>
+        <v>19584.64040276227</v>
       </c>
       <c r="S19">
-        <v>0.07958428760364356</v>
+        <v>0.05324447231303353</v>
       </c>
       <c r="T19">
-        <v>0.07958428760364356</v>
+        <v>0.04723639099404203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.75129363529213</v>
+        <v>15.4436705</v>
       </c>
       <c r="N20">
-        <v>8.75129363529213</v>
+        <v>30.887341</v>
       </c>
       <c r="O20">
-        <v>0.111473572156262</v>
+        <v>0.1861093649875006</v>
       </c>
       <c r="P20">
-        <v>0.111473572156262</v>
+        <v>0.1466263162891969</v>
       </c>
       <c r="Q20">
-        <v>1200.675982820344</v>
+        <v>2187.083839950671</v>
       </c>
       <c r="R20">
-        <v>1200.675982820344</v>
+        <v>13122.50303970402</v>
       </c>
       <c r="S20">
-        <v>0.02102893148409672</v>
+        <v>0.03567595500383416</v>
       </c>
       <c r="T20">
-        <v>0.02102893148409672</v>
+        <v>0.03165029694987597</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.3620607848818</v>
+        <v>35.33817966666667</v>
       </c>
       <c r="N21">
-        <v>21.3620607848818</v>
+        <v>106.014539</v>
       </c>
       <c r="O21">
-        <v>0.2721089388095347</v>
+        <v>0.4258551215255169</v>
       </c>
       <c r="P21">
-        <v>0.2721089388095347</v>
+        <v>0.5032651184401855</v>
       </c>
       <c r="Q21">
-        <v>2930.871068537708</v>
+        <v>5004.481394642553</v>
       </c>
       <c r="R21">
-        <v>2930.871068537708</v>
+        <v>45040.33255178297</v>
       </c>
       <c r="S21">
-        <v>0.05133198945499594</v>
+        <v>0.08163365747186897</v>
       </c>
       <c r="T21">
-        <v>0.05133198945499594</v>
+        <v>0.1086332306932541</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H22">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I22">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J22">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>15.2727973655578</v>
+        <v>0.066009</v>
       </c>
       <c r="N22">
-        <v>15.2727973655578</v>
+        <v>0.198027</v>
       </c>
       <c r="O22">
-        <v>0.1945441839925925</v>
+        <v>0.0007954645933076549</v>
       </c>
       <c r="P22">
-        <v>0.1945441839925925</v>
+        <v>0.0009400605100905511</v>
       </c>
       <c r="Q22">
-        <v>808.6176437215039</v>
+        <v>9.347986101575</v>
       </c>
       <c r="R22">
-        <v>808.6176437215039</v>
+        <v>84.131874914175</v>
       </c>
       <c r="S22">
-        <v>0.01416232628115755</v>
+        <v>0.0001524853896519023</v>
       </c>
       <c r="T22">
-        <v>0.01416232628115755</v>
+        <v>0.000202918514549151</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H23">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I23">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J23">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>33.1193941119515</v>
+        <v>0.1247346666666667</v>
       </c>
       <c r="N23">
-        <v>33.1193941119515</v>
+        <v>0.374204</v>
       </c>
       <c r="O23">
-        <v>0.4218733050416109</v>
+        <v>0.001503158825180898</v>
       </c>
       <c r="P23">
-        <v>0.4218733050416109</v>
+        <v>0.001776396163744967</v>
       </c>
       <c r="Q23">
-        <v>1753.504992391547</v>
+        <v>17.66452953967778</v>
       </c>
       <c r="R23">
-        <v>1753.504992391547</v>
+        <v>158.9807658571</v>
       </c>
       <c r="S23">
-        <v>0.03071131335150629</v>
+        <v>0.0002881457717851629</v>
       </c>
       <c r="T23">
-        <v>0.03071131335150629</v>
+        <v>0.0003834473067730688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H24">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I24">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J24">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.75129363529213</v>
+        <v>9.161148333333335</v>
       </c>
       <c r="N24">
-        <v>8.75129363529213</v>
+        <v>27.483445</v>
       </c>
       <c r="O24">
-        <v>0.111473572156262</v>
+        <v>0.1103996293415459</v>
       </c>
       <c r="P24">
-        <v>0.111473572156262</v>
+        <v>0.1304675691988749</v>
       </c>
       <c r="Q24">
-        <v>463.3368903880869</v>
+        <v>1297.372893006514</v>
       </c>
       <c r="R24">
-        <v>463.3368903880869</v>
+        <v>11676.35603705863</v>
       </c>
       <c r="S24">
-        <v>0.008114995103956715</v>
+        <v>0.02116289101890968</v>
       </c>
       <c r="T24">
-        <v>0.008114995103956715</v>
+        <v>0.02816232046182234</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H25">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I25">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J25">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.3620607848818</v>
+        <v>22.8479525</v>
       </c>
       <c r="N25">
-        <v>21.3620607848818</v>
+        <v>45.695905</v>
       </c>
       <c r="O25">
-        <v>0.2721089388095347</v>
+        <v>0.2753372607269481</v>
       </c>
       <c r="P25">
-        <v>0.2721089388095347</v>
+        <v>0.2169245393979072</v>
       </c>
       <c r="Q25">
-        <v>1131.013451135105</v>
+        <v>3235.65487160002</v>
       </c>
       <c r="R25">
-        <v>1131.013451135105</v>
+        <v>19413.92922960012</v>
       </c>
       <c r="S25">
-        <v>0.01980884494386581</v>
+        <v>0.05278036237044427</v>
       </c>
       <c r="T25">
-        <v>0.01980884494386581</v>
+        <v>0.04682465100001072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.783834</v>
+      </c>
+      <c r="H26">
+        <v>431.351502</v>
+      </c>
+      <c r="I26">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J26">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.4436705</v>
+      </c>
+      <c r="N26">
+        <v>30.887341</v>
+      </c>
+      <c r="O26">
+        <v>0.1861093649875006</v>
+      </c>
+      <c r="P26">
+        <v>0.1466263162891969</v>
+      </c>
+      <c r="Q26">
+        <v>2220.550155522697</v>
+      </c>
+      <c r="R26">
+        <v>13323.30093313618</v>
+      </c>
+      <c r="S26">
+        <v>0.0362218612680031</v>
+      </c>
+      <c r="T26">
+        <v>0.03213460340686885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>143.783834</v>
+      </c>
+      <c r="H27">
+        <v>431.351502</v>
+      </c>
+      <c r="I27">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J27">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>35.33817966666667</v>
+      </c>
+      <c r="N27">
+        <v>106.014539</v>
+      </c>
+      <c r="O27">
+        <v>0.4258551215255169</v>
+      </c>
+      <c r="P27">
+        <v>0.5032651184401855</v>
+      </c>
+      <c r="Q27">
+        <v>5081.058959054175</v>
+      </c>
+      <c r="R27">
+        <v>45729.53063148758</v>
+      </c>
+      <c r="S27">
+        <v>0.08288279922507852</v>
+      </c>
+      <c r="T27">
+        <v>0.1102955144674652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>143.783834</v>
+      </c>
+      <c r="H28">
+        <v>431.351502</v>
+      </c>
+      <c r="I28">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J28">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.066009</v>
+      </c>
+      <c r="N28">
+        <v>0.198027</v>
+      </c>
+      <c r="O28">
+        <v>0.0007954645933076549</v>
+      </c>
+      <c r="P28">
+        <v>0.0009400605100905511</v>
+      </c>
+      <c r="Q28">
+        <v>9.491027098505999</v>
+      </c>
+      <c r="R28">
+        <v>85.419243886554</v>
+      </c>
+      <c r="S28">
+        <v>0.0001548186903132657</v>
+      </c>
+      <c r="T28">
+        <v>0.0002060235327104401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>143.783834</v>
+      </c>
+      <c r="H29">
+        <v>431.351502</v>
+      </c>
+      <c r="I29">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J29">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1247346666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.374204</v>
+      </c>
+      <c r="O29">
+        <v>0.001503158825180898</v>
+      </c>
+      <c r="P29">
+        <v>0.001776396163744967</v>
+      </c>
+      <c r="Q29">
+        <v>17.93482860604533</v>
+      </c>
+      <c r="R29">
+        <v>161.413457454408</v>
+      </c>
+      <c r="S29">
+        <v>0.0002925549202380749</v>
+      </c>
+      <c r="T29">
+        <v>0.0003893147400828044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>143.783834</v>
+      </c>
+      <c r="H30">
+        <v>431.351502</v>
+      </c>
+      <c r="I30">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J30">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.161148333333335</v>
+      </c>
+      <c r="N30">
+        <v>27.483445</v>
+      </c>
+      <c r="O30">
+        <v>0.1103996293415459</v>
+      </c>
+      <c r="P30">
+        <v>0.1304675691988749</v>
+      </c>
+      <c r="Q30">
+        <v>1317.225031209377</v>
+      </c>
+      <c r="R30">
+        <v>11855.02528088439</v>
+      </c>
+      <c r="S30">
+        <v>0.02148672130667369</v>
+      </c>
+      <c r="T30">
+        <v>0.02859325460645812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>143.783834</v>
+      </c>
+      <c r="H31">
+        <v>431.351502</v>
+      </c>
+      <c r="I31">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J31">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.8479525</v>
+      </c>
+      <c r="N31">
+        <v>45.695905</v>
+      </c>
+      <c r="O31">
+        <v>0.2753372607269481</v>
+      </c>
+      <c r="P31">
+        <v>0.2169245393979072</v>
+      </c>
+      <c r="Q31">
+        <v>3285.166209499884</v>
+      </c>
+      <c r="R31">
+        <v>19710.99725699931</v>
+      </c>
+      <c r="S31">
+        <v>0.05358799682451944</v>
+      </c>
+      <c r="T31">
+        <v>0.04754115236054004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H32">
+        <v>106.034229</v>
+      </c>
+      <c r="I32">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J32">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.4436705</v>
+      </c>
+      <c r="N32">
+        <v>30.887341</v>
+      </c>
+      <c r="O32">
+        <v>0.1861093649875006</v>
+      </c>
+      <c r="P32">
+        <v>0.1466263162891969</v>
+      </c>
+      <c r="Q32">
+        <v>818.7788471987723</v>
+      </c>
+      <c r="R32">
+        <v>3275.115388795089</v>
+      </c>
+      <c r="S32">
+        <v>0.01335601167964985</v>
+      </c>
+      <c r="T32">
+        <v>0.007899283717964455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H33">
+        <v>106.034229</v>
+      </c>
+      <c r="I33">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J33">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>35.33817966666667</v>
+      </c>
+      <c r="N33">
+        <v>106.014539</v>
+      </c>
+      <c r="O33">
+        <v>0.4258551215255169</v>
+      </c>
+      <c r="P33">
+        <v>0.5032651184401855</v>
+      </c>
+      <c r="Q33">
+        <v>1873.528317609239</v>
+      </c>
+      <c r="R33">
+        <v>11241.16990565543</v>
+      </c>
+      <c r="S33">
+        <v>0.03056120242694669</v>
+      </c>
+      <c r="T33">
+        <v>0.02711269065829291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H34">
+        <v>106.034229</v>
+      </c>
+      <c r="I34">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J34">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.066009</v>
+      </c>
+      <c r="N34">
+        <v>0.198027</v>
+      </c>
+      <c r="O34">
+        <v>0.0007954645933076549</v>
+      </c>
+      <c r="P34">
+        <v>0.0009400605100905511</v>
+      </c>
+      <c r="Q34">
+        <v>3.4996067110305</v>
+      </c>
+      <c r="R34">
+        <v>20.997640266183</v>
+      </c>
+      <c r="S34">
+        <v>5.708597415115838E-05</v>
+      </c>
+      <c r="T34">
+        <v>5.064441956390313E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H35">
+        <v>106.034229</v>
+      </c>
+      <c r="I35">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J35">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1247346666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.374204</v>
+      </c>
+      <c r="O35">
+        <v>0.001503158825180898</v>
+      </c>
+      <c r="P35">
+        <v>0.001776396163744967</v>
+      </c>
+      <c r="Q35">
+        <v>6.613072104786</v>
+      </c>
+      <c r="R35">
+        <v>39.678432628716</v>
+      </c>
+      <c r="S35">
+        <v>0.0001078731681602007</v>
+      </c>
+      <c r="T35">
+        <v>9.570081038692099E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H36">
+        <v>106.034229</v>
+      </c>
+      <c r="I36">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J36">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>9.161148333333335</v>
+      </c>
+      <c r="N36">
+        <v>27.483445</v>
+      </c>
+      <c r="O36">
+        <v>0.1103996293415459</v>
+      </c>
+      <c r="P36">
+        <v>0.1304675691988749</v>
+      </c>
+      <c r="Q36">
+        <v>485.6976501398177</v>
+      </c>
+      <c r="R36">
+        <v>2914.185900838906</v>
+      </c>
+      <c r="S36">
+        <v>0.007922754123704259</v>
+      </c>
+      <c r="T36">
+        <v>0.007028754258972038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H37">
+        <v>106.034229</v>
+      </c>
+      <c r="I37">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J37">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.8479525</v>
+      </c>
+      <c r="N37">
+        <v>45.695905</v>
+      </c>
+      <c r="O37">
+        <v>0.2753372607269481</v>
+      </c>
+      <c r="P37">
+        <v>0.2169245393979072</v>
+      </c>
+      <c r="Q37">
+        <v>1211.332513783061</v>
+      </c>
+      <c r="R37">
+        <v>4845.330055132245</v>
+      </c>
+      <c r="S37">
+        <v>0.01975939077734694</v>
+      </c>
+      <c r="T37">
+        <v>0.01168650025083579</v>
       </c>
     </row>
   </sheetData>
